--- a/files.xlsx
+++ b/files.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA23BAA-CA83-465F-A391-70A964190F70}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA689519-5681-4BE2-8770-53CA91D93E95}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>data tranformation</t>
   </si>
@@ -170,6 +170,51 @@
   </si>
   <si>
     <t>generate functions for a thread pool with the number of thread and target function body.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project name in my account </t>
+  </si>
+  <si>
+    <t>fir_data_time</t>
+  </si>
+  <si>
+    <t>svm_n20sv</t>
+  </si>
+  <si>
+    <t>svm_self_pipe_1</t>
+  </si>
+  <si>
+    <t>svm_20_user_pipe</t>
+  </si>
+  <si>
+    <t>svm_20sv_self_pipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> svm_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> svm_2_another_pipe</t>
+  </si>
+  <si>
+    <t>fir_no_opti</t>
+  </si>
+  <si>
+    <t>FIR_n10_pipe</t>
+  </si>
+  <si>
+    <t>FIR_n20_pipe</t>
+  </si>
+  <si>
+    <t>julia_32_thread20</t>
+  </si>
+  <si>
+    <t>FIR_n30_pipe</t>
+  </si>
+  <si>
+    <t>julia_32_no_opti</t>
+  </si>
+  <si>
+    <t>julia_32_pipe</t>
   </si>
 </sst>
 </file>
@@ -199,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -222,85 +267,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -310,10 +281,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,27 +289,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E45"/>
+  <dimension ref="A2:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E45" sqref="A2:E45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,403 +590,475 @@
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="49.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="F2" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+      <c r="F7" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
+      <c r="F9" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
+      <c r="F11" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
+      <c r="F13" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
+      <c r="F15" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
+      <c r="F17" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
+      <c r="F21" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
+      <c r="F23" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
+      <c r="F25" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6" t="s">
+      <c r="F27" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6" t="s">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6" t="s">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6" t="s">
+      <c r="F33" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6" t="s">
+      <c r="F35" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
+      <c r="F37" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6" t="s">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1037,34 +1066,88 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
       <c r="B44" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
       <c r="B45" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="F45" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="67">
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B7:B20"/>
+    <mergeCell ref="C7:C18"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="A3:A42"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A43:A45"/>
@@ -1081,43 +1164,6 @@
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="C39:C42"/>
     <mergeCell ref="B33:B42"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B7:B20"/>
-    <mergeCell ref="C7:C18"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C21:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files.xlsx
+++ b/files.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA689519-5681-4BE2-8770-53CA91D93E95}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEF49A0-712F-46B8-AEE2-79CE5CF2B84A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +240,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,29 +282,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,16 +600,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -617,7 +623,7 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
@@ -629,7 +635,7 @@
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="8"/>
       <c r="F4" s="6"/>
     </row>
@@ -639,19 +645,19 @@
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -664,7 +670,7 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -676,7 +682,7 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -686,7 +692,7 @@
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -698,7 +704,7 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -708,7 +714,7 @@
       <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -720,7 +726,7 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -730,7 +736,7 @@
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -742,7 +748,7 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -752,7 +758,7 @@
       <c r="D15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -764,7 +770,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -774,7 +780,7 @@
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -786,7 +792,7 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -798,18 +804,18 @@
       <c r="D19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
@@ -822,7 +828,7 @@
       <c r="D21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -834,7 +840,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -844,7 +850,7 @@
       <c r="D23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -856,7 +862,7 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -866,7 +872,7 @@
       <c r="D25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -878,7 +884,7 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="7"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -888,7 +894,7 @@
       <c r="D27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F27" s="6" t="s">
@@ -900,7 +906,7 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -912,18 +918,18 @@
       <c r="D29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="2"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
@@ -932,18 +938,18 @@
       <c r="D31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="2"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
@@ -956,7 +962,7 @@
       <c r="D33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F33" s="6" t="s">
@@ -968,7 +974,7 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="7"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -978,7 +984,7 @@
       <c r="D35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F35" s="6" t="s">
@@ -990,7 +996,7 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="7"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1000,7 +1006,7 @@
       <c r="D37" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F37" s="6" t="s">
@@ -1012,7 +1018,7 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="7"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1024,18 +1030,18 @@
       <c r="D39" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="2"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
@@ -1044,59 +1050,110 @@
       <c r="D41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="2"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="4" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="2"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="4" t="s">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="4" t="s">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="2"/>
+      <c r="F45" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="A3:A42"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B21:B32"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B7:B20"/>
+    <mergeCell ref="C7:C18"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="F37:F38"/>
@@ -1113,57 +1170,6 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B7:B20"/>
-    <mergeCell ref="C7:C18"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A3:A42"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B21:B32"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="B33:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
